--- a/biology/Botanique/Tetrapilus/Tetrapilus.xlsx
+++ b/biology/Botanique/Tetrapilus/Tetrapilus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tetrapilus est un sous-genre[1] de plantes à fleurs appartenant au genre Olea et à la famille des Oleaceae. Il comprent des arbres et des buissons localisés essentiellement en Asie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tetrapilus est un sous-genre de plantes à fleurs appartenant au genre Olea et à la famille des Oleaceae. Il comprent des arbres et des buissons localisés essentiellement en Asie.
 </t>
         </is>
       </c>
@@ -511,13 +523,11 @@
           <t>Description botanique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les caractères spécifiques de ce sous-genre sont les suivants[2].
-Appareil végétatif
-Arbres ou arbustes à feuilles entières ou dentelées, glabres ou pileuses, sans domaties.
-Appareil reproducteur
-Les inflorescences sont axillaires, les corolles des fleurs sont remarquables par leur proche uniformité, avec peu ou pas de différenciation spécifique. Le tube de la corolle est bien développé.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les caractères spécifiques de ce sous-genre sont les suivants.
 </t>
         </is>
       </c>
@@ -543,14 +553,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Taxonomie</t>
+          <t>Description botanique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Le botaniste Johnson (op. cit. 1957:407) a proposé de faire de ce sous-genre un genre à part entière, un statut qui serait appuyé par des études de chimie moléculaire récentes. Cependant P.S. Green maintient le taxon en sous-genre.
-Synonymes
-Tetrapilus (Lour.) P.S. Green, Fl. Cochinch. 599, 611. 1790.</t>
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arbres ou arbustes à feuilles entières ou dentelées, glabres ou pileuses, sans domaties.
+</t>
         </is>
       </c>
     </row>
@@ -575,12 +590,120 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description botanique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les inflorescences sont axillaires, les corolles des fleurs sont remarquables par leur proche uniformité, avec peu ou pas de différenciation spécifique. Le tube de la corolle est bien développé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tetrapilus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tetrapilus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le botaniste Johnson (op. cit. 1957:407) a proposé de faire de ce sous-genre un genre à part entière, un statut qui serait appuyé par des études de chimie moléculaire récentes. Cependant P.S. Green maintient le taxon en sous-genre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Tetrapilus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tetrapilus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Tetrapilus (Lour.) P.S. Green, Fl. Cochinch. 599, 611. 1790.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tetrapilus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tetrapilus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Taxons appartenant à ce sous-genre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Les 24 espèces ci-après ont été rattachées au sous-genre Tetrapilus par P.S. Green (2012) [3]:
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Les 24 espèces ci-après ont été rattachées au sous-genre Tetrapilus par P.S. Green (2012) :
 Olea brachiata Merr. : Singapour et Chine (Yunnan).
 Olea borneensis Boert. : Malaisie, Philippines.
 Olea caudatilimba L.C.Chia : Chine (Yunnan).
@@ -608,33 +731,35 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Tetrapilus</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Tetrapilus</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (20 juin 2013)[4] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (20 juin 2013) (Attention liste brute contenant possiblement des synonymes) :
 Tetrapilus axillaris Raf.
 Tetrapilus brachiatus Lour.
 Tetrapilus cordatulus (H.L. Li) L.A.S. Johnson
@@ -651,31 +776,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Tetrapilus</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Tetrapilus</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>voir aussi sous-genre Olea,
 voir aussi sous-genre Paniculatae.</t>
